--- a/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
+++ b/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/#keto-rev/modified xlsx tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17E295C-7401-F546-A4C3-25D98DDD0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0845C-AFE5-2A47-B931-23D492DD5B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
+    <workbookView xWindow="16200" yWindow="2820" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>The Potential Use of a Ketogenic Diet in Pancreatobiliary Cancer Patients After Pancreatectomy</t>
   </si>
   <si>
-    <t>Cancer cachexia: influence of systemic ketosis on substrate levels and nitrogen metabolism</t>
-  </si>
-  <si>
     <t>Decline of Lactate in Tumor Tissue After Ketogenic Diet: In Vivo Microdialysis Study in Patients with Head and Neck Cancer</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Crossover Assignment</t>
   </si>
   <si>
-    <t>Single Group Crossover</t>
-  </si>
-  <si>
     <t>Cancer Type</t>
   </si>
   <si>
@@ -244,14 +238,20 @@
     <t>Pancreatobiliary</t>
   </si>
   <si>
-    <t>Ovarian, Lung, and Gastric</t>
+    <t>NCT03278249</t>
+  </si>
+  <si>
+    <t>Feasibility of a modified Atkins diet in glioma patients during radiation and its effect on radiation sensitization</t>
+  </si>
+  <si>
+    <t>Astrocytoma </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +278,18 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,10 +311,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8674A-243E-114B-860F-D68140EDA7F1}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -670,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -687,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>2017</v>
@@ -704,10 +718,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>2017</v>
@@ -721,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>2012</v>
@@ -738,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2017</v>
@@ -755,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>2017</v>
@@ -772,10 +786,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>2007</v>
@@ -789,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>2006</v>
@@ -806,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>2013</v>
@@ -823,10 +837,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>2015</v>
@@ -840,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>2007</v>
@@ -857,10 +871,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>2015</v>
@@ -874,10 +888,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>2015</v>
@@ -891,10 +905,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -908,16 +922,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -925,16 +939,16 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -942,16 +956,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -959,16 +973,16 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -976,16 +990,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -993,48 +1007,161 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2012</v>
       </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
+++ b/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/#keto-rev/modified xlsx tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0845C-AFE5-2A47-B931-23D492DD5B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7A003-0114-A843-B624-6EEE0CA1A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="2820" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
+    <workbookView xWindow="10880" yWindow="800" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Trial ID</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>The Potential Use of a Ketogenic Diet in Pancreatobiliary Cancer Patients After Pancreatectomy</t>
-  </si>
-  <si>
-    <t>Decline of Lactate in Tumor Tissue After Ketogenic Diet: In Vivo Microdialysis Study in Patients with Head and Neck Cancer</t>
   </si>
   <si>
     <t>Initiation</t>
@@ -654,7 +651,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A23" sqref="A23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -701,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>2017</v>
@@ -718,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>2017</v>
@@ -735,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>2012</v>
@@ -752,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>2017</v>
@@ -769,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2017</v>
@@ -786,10 +783,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>2007</v>
@@ -803,10 +800,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>2006</v>
@@ -820,10 +817,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>2013</v>
@@ -837,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>2015</v>
@@ -854,10 +851,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>2007</v>
@@ -871,10 +868,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>2015</v>
@@ -888,10 +885,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2015</v>
@@ -905,10 +902,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -922,10 +919,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -939,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>2014</v>
@@ -956,10 +953,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>2017</v>
@@ -973,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>2014</v>
@@ -990,10 +987,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>2010</v>
@@ -1007,10 +1004,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>2016</v>
@@ -1018,37 +1015,26 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23">
-        <v>2012</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>

--- a/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
+++ b/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/#keto-rev/modified xlsx tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7A003-0114-A843-B624-6EEE0CA1A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB3D41-0EBD-4B48-9EB5-A0F33B1CC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="800" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Trial ID</t>
   </si>
@@ -233,15 +233,6 @@
   </si>
   <si>
     <t>Pancreatobiliary</t>
-  </si>
-  <si>
-    <t>NCT03278249</t>
-  </si>
-  <si>
-    <t>Feasibility of a modified Atkins diet in glioma patients during radiation and its effect on radiation sensitization</t>
-  </si>
-  <si>
-    <t>Astrocytoma </t>
   </si>
 </sst>
 </file>
@@ -651,7 +642,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,21 +1005,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2017</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>

--- a/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
+++ b/exploratory/data/tables/#ketorev_completedtrial_cancertype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/#keto-rev/modified xlsx tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB3D41-0EBD-4B48-9EB5-A0F33B1CC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D2BA7-F241-874D-8074-450F910D696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="800" windowWidth="23320" windowHeight="20120" xr2:uid="{BE6FCC27-8BB8-404D-A039-64BC257B2BAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Trial ID</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>Pancreatobiliary</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MB Endpoint</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -641,13 +650,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8674A-243E-114B-860F-D68140EDA7F1}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +672,11 @@
       <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,8 +692,11 @@
       <c r="E2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,8 +712,11 @@
       <c r="E3">
         <v>2017</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,8 +732,11 @@
       <c r="E4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,8 +752,11 @@
       <c r="E5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,8 +772,11 @@
       <c r="E6">
         <v>2017</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -765,8 +792,11 @@
       <c r="E7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -782,8 +812,11 @@
       <c r="E8">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -799,8 +832,11 @@
       <c r="E9">
         <v>2006</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,8 +852,11 @@
       <c r="E10">
         <v>2013</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -833,8 +872,11 @@
       <c r="E11">
         <v>2015</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -850,8 +892,11 @@
       <c r="E12">
         <v>2007</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,8 +912,11 @@
       <c r="E13">
         <v>2015</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -884,8 +932,11 @@
       <c r="E14">
         <v>2015</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -901,8 +952,11 @@
       <c r="E15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -917,6 +971,9 @@
       </c>
       <c r="E16">
         <v>2020</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -935,6 +992,9 @@
       <c r="E17">
         <v>2014</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -952,6 +1012,9 @@
       <c r="E18">
         <v>2017</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -969,6 +1032,9 @@
       <c r="E19">
         <v>2014</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -986,6 +1052,9 @@
       <c r="E20">
         <v>2010</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1002,6 +1071,9 @@
       </c>
       <c r="E21">
         <v>2016</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
